--- a/Project/tables.xlsx
+++ b/Project/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janetjw/Dropbox (University of Michigan)/STATS506/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA2A96E-641C-7F4F-91E2-361B5BB40DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33A3A5F-4BEF-4643-BC3D-77479D880CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36440" yWindow="2820" windowWidth="24460" windowHeight="15940" xr2:uid="{17E50E82-5C55-C943-88A7-3D88C68CA73E}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15940" xr2:uid="{17E50E82-5C55-C943-88A7-3D88C68CA73E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Variables</t>
   </si>
@@ -59,183 +59,114 @@
     <t>*** p&lt;0.001, ** p&lt;0.01, * p&lt;0.05</t>
   </si>
   <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>VARIABLES</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>1.060***</t>
   </si>
   <si>
     <t>(0.002)</t>
   </si>
   <si>
-    <t>2.rmainocc</t>
-  </si>
-  <si>
     <t>1.197**</t>
   </si>
   <si>
     <t>(0.062)</t>
   </si>
   <si>
-    <t>3.rmainocc</t>
-  </si>
-  <si>
     <t>0.920</t>
   </si>
   <si>
     <t>(0.059)</t>
   </si>
   <si>
-    <t>4.rmainocc</t>
-  </si>
-  <si>
     <t>1.288***</t>
   </si>
   <si>
     <t>(0.092)</t>
   </si>
   <si>
-    <t>5.rmainocc</t>
-  </si>
-  <si>
     <t>1.154*</t>
   </si>
   <si>
     <t>(0.067)</t>
   </si>
   <si>
-    <t>6.rmainocc</t>
-  </si>
-  <si>
     <t>0.852*</t>
   </si>
   <si>
-    <t>7.rmainocc</t>
-  </si>
-  <si>
     <t>0.994</t>
   </si>
   <si>
-    <t>8.rmainocc</t>
-  </si>
-  <si>
     <t>1.301***</t>
   </si>
   <si>
     <t>(0.080)</t>
   </si>
   <si>
-    <t>1.myeduc</t>
-  </si>
-  <si>
     <t>1.551***</t>
   </si>
   <si>
     <t>(0.068)</t>
   </si>
   <si>
-    <t>3.myeduc</t>
-  </si>
-  <si>
     <t>0.883**</t>
   </si>
   <si>
     <t>(0.034)</t>
   </si>
   <si>
-    <t>4.myeduc</t>
-  </si>
-  <si>
     <t>0.680***</t>
   </si>
   <si>
-    <t>2.raracem</t>
-  </si>
-  <si>
     <t>1.916***</t>
   </si>
   <si>
     <t>(0.096)</t>
   </si>
   <si>
-    <t>3.raracem</t>
-  </si>
-  <si>
     <t>1.323***</t>
   </si>
   <si>
     <t>(0.079)</t>
   </si>
   <si>
-    <t>2.ragender</t>
-  </si>
-  <si>
     <t>0.923*</t>
   </si>
   <si>
     <t>(0.036)</t>
   </si>
   <si>
-    <t>2.mypeduc</t>
-  </si>
-  <si>
     <t>0.868***</t>
   </si>
   <si>
     <t>(0.035)</t>
   </si>
   <si>
-    <t>3.mypeduc</t>
-  </si>
-  <si>
     <t>0.841*</t>
   </si>
   <si>
-    <t>4.mypeduc</t>
-  </si>
-  <si>
     <t>0.763***</t>
   </si>
   <si>
     <t>(0.051)</t>
   </si>
   <si>
-    <t>1.poorhealth</t>
-  </si>
-  <si>
     <t>1.555***</t>
   </si>
   <si>
     <t>(0.057)</t>
   </si>
   <si>
-    <t>1.rsmokev</t>
-  </si>
-  <si>
     <t>1.077*</t>
   </si>
   <si>
     <t>(0.033)</t>
   </si>
   <si>
-    <t>2.rlbrfsimp</t>
-  </si>
-  <si>
     <t>0.646***</t>
   </si>
   <si>
     <t>(0.042)</t>
   </si>
   <si>
-    <t>3.rlbrfsimp</t>
-  </si>
-  <si>
     <t>0.841***</t>
   </si>
   <si>
@@ -248,15 +179,9 @@
     <t>92,836</t>
   </si>
   <si>
-    <t>seEform in parentheses</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>Farming/forestry/fishiing, mechanics/repair, construction, precision production</t>
-  </si>
-  <si>
     <t>Operators: machine, transport, handlers</t>
   </si>
   <si>
@@ -278,15 +203,71 @@
     <t>Covariates ommitted from table for brevity</t>
   </si>
   <si>
-    <t>Discrete time hazard modeling for probability of cognitive impairment</t>
+    <t>Farming/forestry/fishing, mechanics/repair, construction, precision production</t>
+  </si>
+  <si>
+    <t>Hazard Ratios for onset of cognitive impairment: HRS, 2000-2018</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Less than HS diploma</t>
+  </si>
+  <si>
+    <t>Some College</t>
+  </si>
+  <si>
+    <t>College Degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Race/ethinicity</t>
+  </si>
+  <si>
+    <t>Parents' education</t>
+  </si>
+  <si>
+    <t>HS diploma</t>
+  </si>
+  <si>
+    <t>Gender (women)</t>
+  </si>
+  <si>
+    <t>Fair/poor health</t>
+  </si>
+  <si>
+    <t>Ever smoked</t>
+  </si>
+  <si>
+    <t>Retired</t>
+  </si>
+  <si>
+    <t>Disabled/other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -341,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,8 +339,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,37 +663,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2C0245-AED6-7D4A-9F14-CCF70B5240E7}">
-  <dimension ref="A2:H50"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -723,141 +709,127 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
@@ -867,25 +839,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="A16" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>71</v>
+        <v>17</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -895,50 +867,50 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2</v>
+      <c r="A18" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2</v>
+      <c r="A20" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -946,53 +918,51 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="G22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
+      <c r="A23" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="A25" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>39</v>
+      <c r="A27" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1000,111 +970,107 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>2</v>
+      <c r="A30" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>45</v>
+      <c r="A31" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>2</v>
+      <c r="A32" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>2</v>
+      <c r="A34" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>53</v>
+      <c r="A37" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>56</v>
+      <c r="A39" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>59</v>
+      <c r="A41" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,31 +1078,28 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,39 +1107,65 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>